--- a/SENSITIVITY ANALYSIS/Impact of sample size/ExamDB.xlsx
+++ b/SENSITIVITY ANALYSIS/Impact of sample size/ExamDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9264860a0814b51/Research/SPL systems/VARCOP/SENSITIVITY ANALYSIS/Impact of sample size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D89D9A56-31F0-774A-AD3E-E6B9CFE8DD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{D89D9A56-31F0-774A-AD3E-E6B9CFE8DD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D77C02A7-5590-DC44-9D67-24DE6574D1DE}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="4080" windowWidth="26840" windowHeight="15940" xr2:uid="{F70EDEA7-EB2E-FA4B-892F-E970C25F7F4A}"/>
+    <workbookView xWindow="1960" yWindow="620" windowWidth="26840" windowHeight="15940" xr2:uid="{F70EDEA7-EB2E-FA4B-892F-E970C25F7F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>K_WISE</t>
   </si>
@@ -72,12 +72,6 @@
     <t>#Bugs</t>
   </si>
   <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:RANK</t>
-  </si>
-  <si>
-    <t>VARCOP_ENABLE_BUGGY_PC_DETECTION:EXAM</t>
-  </si>
-  <si>
     <t>VARCOP:SPACE</t>
   </si>
   <si>
@@ -88,6 +82,15 @@
   </si>
   <si>
     <t>SBFL:SPACE</t>
+  </si>
+  <si>
+    <t>#products/case</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:RANK</t>
+  </si>
+  <si>
+    <t>VARCOP_ENABLE_SUSPICIOUS_STM_ISOLATION:EXAM</t>
   </si>
 </sst>
 </file>
@@ -131,10 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,576 +455,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168C38FD-942E-384E-B5D3-569F77BCC017}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1">
         <v>6.0434782608695654</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>2.8109201213346808</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>36.217391304347828</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>6.4782608695652177</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>3.0131445904954499</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1">
         <v>3.8260869565217388</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1.779575328614762</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>36.217391304347828</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>4.3695652173913047</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2.0323559150657222</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1">
         <v>3.7173913043478262</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1.7290192113245699</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>36.217391304347828</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4.2826086956521738</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1.9919110212335689</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
         <v>6.0434782608695654</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>2.8109201213346808</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>36.217391304347828</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>6.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3.0232558139534889</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1">
         <v>4.4782608695652177</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2.0829120323559138</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>36.217391304347828</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5.2608695652173916</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2.446916076845298</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.5217391304347823</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2.5098814229249</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>31.021739130434781</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>5.7391304347826084</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.6086956521739131</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1">
         <v>3.2173913043478262</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>1.4624505928853739</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>31.021739130434781</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.347826086956522</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1.521739130434782</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1">
         <v>3.0217391304347831</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>1.373517786561264</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>31.021739130434781</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>3.195652173913043</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.452569169960473</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1">
         <v>5.5217391304347823</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2.5098814229249</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>31.021739130434781</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>5.7391304347826084</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>2.6086956521739131</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1">
         <v>3.2826086956521738</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1.492094861660078</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>31.021739130434781</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>3.5652173913043481</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1.620553359683794</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1">
         <v>6.3913043478260869</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>2.5463363935562091</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>33.782608695652172</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>6.7391304347826084</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>2.6849125238177711</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1">
         <v>3.2391304347826089</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1.2904902130608</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>33.782608695652172</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>3.2608695652173911</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1.299151221202147</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D14">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
         <v>2.9782608695652169</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>1.1865581153646281</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>33.782608695652172</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>3.152173913043478</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>1.2558461804954091</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
         <v>6.3913043478260869</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2.5463363935562091</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>33.782608695652172</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>6.7391304347826084</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>2.6849125238177711</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
         <v>3.5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>1.394422310756972</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>33.782608695652172</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>3.6739130434782612</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1.463710375887753</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1">
         <v>5.2608695652173916</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>2.0959639702061308</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>33.608695652173907</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>5.5</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>2.191235059760956</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1">
         <v>3.1086956521739131</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>1.2385241642127141</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>33.608695652173907</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>3.152173913043478</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>1.2558461804954091</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
         <v>3.1086956521739131</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>1.2385241642127141</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>33.608695652173907</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>3.5</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1.394422310756972</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="D20">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1">
         <v>5.2608695652173916</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>2.0959639702061308</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>33.608695652173907</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>5.5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2.191235059760956</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="D21">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1">
         <v>3.347826086956522</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1.3337952537675379</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>33.608695652173907</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>3.543478260869565</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>1.411744327039667</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>251</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>